--- a/Question_Sets/Role-specific skills/Costing of Products and Services.xlsx
+++ b/Question_Sets/Role-specific skills/Costing of Products and Services.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'Under absorption costing, your company showed a profit of $1,200. However, the CFO of your company wants you to re-compute the profit figure using marginal costing. The closing stock contains 200 units. The absorption rate for the fixed production overheads is $1.What is the marginal costing profit?', 'ques_type': 2, 'options': ['$1,000', '$1,200', '$1,400', '$1,600'], 'score': '$1,000'}, {'title': 'At the beginning of the month, your company had 40 units of material X, which were purchased at $9/unit. The table below provides details about material purchases during the month. At the month end, 100 units were held as a closing stock. Your company applies the LIFO method for material costing.What is the cost of goods sold for the month?', 'ques_type': 2, 'options': ['$900', '$910', '$1,080', '$1,200'], 'score': '$910'}, {'title': 'It is the first year of operations for your company. You want to achieve at least the break-even point for the year. Your selling price is $12/unit and the variable cost is $8/unit. Your fixed cost for the year is estimated to be $240,000.How many units must your company sell to achieve the break-even point?', 'ques_type': 2, 'options': ['24,000 units', '30,000 units', '60,000 units', '80,000 units'], 'score': '60,000 units'}, {'title': 'Your company estimates a production of 400 units for the next month. Each finished unit will consume 2 lbs of material X. You have 100 lbs of material X available and you plan to maintain a closing stock of 150 lbs at the end of the month. You estimate that 50 lbs of material will be lost during the production process. The purchase price is $2/lb.What is the budgeted material procurement cost for the next month?', 'ques_type': 2, 'options': ['$1,600', '$1,800', '$1,900', '$2,000'], 'score': '$1,800'}]</t>
+    <t>questions = [
+    {
+        "title": "Under absorption costing, your company showed a profit of $1,200. However, the CFO of your company wants you to re-compute the profit figure using marginal costing. The closing stock contains 200 units. The absorption rate for the fixed production overheads is $1.What is the marginal costing profit?",
+        "ques_type": 2,
+        "options": [
+            "$1,000",
+            "$1,200",
+            "$1,400",
+            "$1,600"
+        ],
+        "score": "$1,000"
+    },
+    {
+        "title": "At the beginning of the month, your company had 40 units of material X, which were purchased at $9/unit. The table below provides details about material purchases during the month. At the month end, 100 units were held as a closing stock. Your company applies the LIFO method for material costing.What is the cost of goods sold for the month?",
+        "ques_type": 2,
+        "options": [
+            "$900",
+            "$910",
+            "$1,080",
+            "$1,200"
+        ],
+        "score": "$910"
+    },
+    {
+        "title": "It is the first year of operations for your company. You want to achieve at least the break-even point for the year. Your selling price is $12/unit and the variable cost is $8/unit. Your fixed cost for the year is estimated to be $240,000.How many units must your company sell to achieve the break-even point?",
+        "ques_type": 2,
+        "options": [
+            "24,000 units",
+            "30,000 units",
+            "60,000 units",
+            "80,000 units"
+        ],
+        "score": "60,000 units"
+    },
+    {
+        "title": "Your company estimates a production of 400 units for the next month. Each finished unit will consume 2 lbs of material X. You have 100 lbs of material X available and you plan to maintain a closing stock of 150 lbs at the end of the month. You estimate that 50 lbs of material will be lost during the production process. The purchase price is $2/lb.What is the budgeted material procurement cost for the next month?",
+        "ques_type": 2,
+        "options": [
+            "$1,600",
+            "$1,800",
+            "$1,900",
+            "$2,000"
+        ],
+        "score": "$1,800"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
